--- a/Input/VBSimInputPDx.xlsx
+++ b/Input/VBSimInputPDx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723A5A7E-EC97-4884-A6DD-7C2E1B02A6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28212AD6-8299-491C-8D07-197C7DB7DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37725" yWindow="-3165" windowWidth="27735" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>NumVeh</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>AGBBox,AGBTwin,AGBMulti,AGBSlab</t>
+  </si>
+  <si>
+    <t>Box.Stand.Wid12.Bi.S20</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -550,8 +555,8 @@
       <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>24</v>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
